--- a/rolar_opcoes_ITSA4_ITSAG113_ITSAH115.xlsx
+++ b/rolar_opcoes_ITSA4_ITSAG113_ITSAH115.xlsx
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.82</v>
+        <v>11.73</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="F3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>11.54</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>2.48667850799289</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1899999999999993</v>
+        <v>0.1399999999999993</v>
       </c>
       <c r="J4" t="n">
-        <v>1.687388987566601</v>
+        <v>1.243339253996442</v>
       </c>
     </row>
   </sheetData>
